--- a/data_mouse_store.xlsx
+++ b/data_mouse_store.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9215"/>
+    <workbookView windowWidth="22368" windowHeight="9215" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,18 @@
     <sheet name="Style" sheetId="4" r:id="rId4"/>
     <sheet name="Trademark" sheetId="5" r:id="rId5"/>
     <sheet name="Category" sheetId="6" r:id="rId6"/>
+    <sheet name="Warehouse" sheetId="7" r:id="rId7"/>
+    <sheet name="Role" sheetId="8" r:id="rId8"/>
+    <sheet name="User" sheetId="9" r:id="rId9"/>
+    <sheet name="Image" sheetId="10" r:id="rId10"/>
+    <sheet name="Product_sizes" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -69,18 +74,28 @@
     <t>trademark_id</t>
   </si>
   <si>
-    <t>1,MS-001,"Trắn, Đen","Áo thun The Original Vietnamese, chất liệu thun cotton 280gsm dày dặn, mát lạnh. From unisex thoải mái, nam hoặc nữ đều mặc được. Bo cổ bản to dày dặn, đường may cao cấp từng chi tiết. ",false,https://firebasestorage.googleapis.com/v0/b/c0822g1-mobile-shop-d949d.appspot.com/o/16567-clean-z3351628479742-f672d13ee8cbddd92d8accb24cd4c7b2-removebg-preview.png?alt=media&amp;token=1bae1149-f5c7-4c99-b82b-7dcf6af70610,"Thân: 73% Bông, 27% Polyeste/ Bo: 65% Bông, 35% Polyeste",Áo thun tay ngắn,295000,0,"Giặt ở chế độ bình thường, với đồ có màu tương tự.",1,1,1,1,1</t>
-  </si>
-  <si>
-    <t>2,MS-002,Trắng,"Sơ mi nam tay dài vải Oxford dày dặn, đứng dáng và ít nhăn. Phom dáng Slimfit đẹp và tôn dáng, hoàn thiện sắc nét từng chi tiết. ",false,https://firebasestorage.googleapis.com/v0/b/c0822g1-mobile-shop-d949d.appspot.com/o/ao-so-mi-tay-dai-basic-trang-removebg-preview.png?alt=media&amp;token=44136864-eec0-4031-a2bf-5efce1c89829,vải Oxford,Áo thun tay ngắn,320000,0,"Giặt ở chế độ bình thường, với đồ có màu tương tự.",2,1,1,1,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,MS-003,Đen,"Áo khoác Jean đơn giản và thời thượng, dễ mix mọi trang phục. Chất liệu: jean cao cấp và co giãn, có túi trong",false,https://firebasestorage.googleapis.com/v0/b/c0822g1-mobile-shop-d949d.appspot.com/o/%C3%A1o_kho%C3%A1c_nam-removebg-preview.png?alt=media&amp;token=225f9eef-e4a0-4948-b950-99bd12681284,"Jean cao cấp và co giãn, có túi trong",Áo khoác,525000,0,"Giặt ở chế độ bình thường, với đồ có màu tương tự.",3,1,1,1,1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,MS-004,Trắng,"kiểu áo có form rộng rãi, độ dài ngang đến hông hoặc dài hơn, có mũ trùm, đi kèm cùng dây rút để giữ ấm phần đầu",false,https://firebasestorage.googleapis.com/v0/b/c0822g1-mobile-shop-d949d.appspot.com/o/%C3%A1o_hoodie-removebg-preview.png?alt=media&amp;token=d4ff9dc1-0221-4497-a980-ef3b21917e06,"Vải nỉ, vải thun",Áo hoodie,600000,0,"Giặt ở chế độ bình thường, với đồ có màu tương tự.",4,1,1,1,1
-</t>
+    <t>1,MS-001,"Trắn, Đen","Áo thun The Original Vietnamese, chất liệu thun cotton 280gsm dày dặn, mát lạnh. From unisex thoải mái, nam hoặc nữ đều mặc được. Bo cổ bản to dày dặn, đường may cao cấp từng chi tiết. ",false,"Thân: 73% Bông, 27% Polyeste/ Bo: 65% Bông, 35% Polyeste",Áo thun tay ngắn,295000,0,"Giặt ở chế độ bình thường, với đồ có màu tương tự.",1,1,1,1</t>
+  </si>
+  <si>
+    <t>2,MS-002,Trắng,"Sơ mi nam tay dài vải Oxford dày dặn, đứng dáng và ít nhăn. Phom dáng Slimfit đẹp và tôn dáng, hoàn thiện sắc nét từng chi tiết. ",false,vải Oxford,Áo sơ mi tay dài,320000,0,"Giặt ở chế độ bình thường, với đồ có màu tương tự.",2,1,1,1</t>
+  </si>
+  <si>
+    <t>3,MS-003,Đen,"Áo hoodie là kiểu áo có form rộng rãi, độ dài ngang đến hông hoặc dài hơn, có mũ trùm, đi kèm cùng dây rút để giữ ấm phần đầu.",false,"Jean cao cấp và co giãn, có túi trong",Áo hoodie,525000,0,"Giặt ở chế độ bình thường, với đồ có màu tương tự.",3,1,1,1</t>
+  </si>
+  <si>
+    <t>4,MS-004,Trắng,"Áo khoác Jean đơn giản và thời thượng, dễ mix mọi trang phục. ",false,"Vải nỉ, vải thun",Áo khoác ,600000,0,"Giặt ở chế độ bình thường, với đồ có màu tương tự.",4,1,1,1</t>
+  </si>
+  <si>
+    <t>5,MS-005,Xanh đen,"Áo khoác nam nữ, form oversize rộng rãi và thoải mái.Chất liệu nỉ chân cua chính phẩm 350gsm dày dặn. Dây khóa kéo 2 đầu, có thể kéo được 2 chiều. Mặt trong có túi đựng điện thoại.Công nghệ thêu lông đắp giống cao cấp",false,Vải nỉ,Áo khoác nỉ,450000,1,"Giặt ở chế độ bình thường, với đồ có màu tương tự.",3,1,1,1</t>
+  </si>
+  <si>
+    <t>6,MS-006,"Trắng, hồng, đen","Áo thun Polo cổ bẻ đơn giản và dễ mặc trong mọi dịp, chất cotton có lỗ thoáng khí, co giãn và thấm hút tốt. Bo cổ cotton được dệt riêng. Form dáng slimfit, cổ áo đứng form chuẩn dáng.",false," 98% cotton, 2% Spandex",Áo thun polo,280000,1,"Giặt ở chế độ bình thường, với đồ có màu tương tự.",1,1,1,1</t>
+  </si>
+  <si>
+    <t>7,MS-007,Đen,"Quần kaki nam Kenta với form dáng Slim vừa vặn và trẻ trung và thời thượng. Chất kaki co giãn, vải siêu mát, thoải mái trong mọi chuyển động. Sản phẩm sẽ đem đến sự hài lòng nhất. ",false,"kaki cao cấp siêu mịn, co giãn. ",Quần Kaki,350000,1,"Giặt ở chế độ bình thường, với đồ có màu tương tự.",5,1,1,1</t>
+  </si>
+  <si>
+    <t>8,MS-008,Xám,"Quần Short Thun Slimfit Kenta, form unisex vừa vặn ngắn trên gối, lưng thun thoải mái khi mặc, túi sâu để vật dụng thoải mái. Điểm nhấn ở dây inox và logo thêu Kenta sắc nét, tăng độ hoàn thiện và chất lượng cho sản phẩm.",false,Vải Kaki thun,Quần short thun ,195000,1,"Giặt ở chế độ bình thường, với đồ có màu tương tự.",4,1,1,1</t>
   </si>
   <si>
     <t>1,Việt Nam</t>
@@ -129,6 +144,69 @@
   </si>
   <si>
     <t>4,Áo hoodie</t>
+  </si>
+  <si>
+    <t>5,Quần dài</t>
+  </si>
+  <si>
+    <t>6,Quần short</t>
+  </si>
+  <si>
+    <t>date_imports</t>
+  </si>
+  <si>
+    <t>product_id</t>
+  </si>
+  <si>
+    <t>1,2023-03-24,0,1,1</t>
+  </si>
+  <si>
+    <t>2,2023-03-24,10,1,2</t>
+  </si>
+  <si>
+    <t>3,2023-03-24,20,1,3</t>
+  </si>
+  <si>
+    <t>4,2023-03-24,30,1,4</t>
+  </si>
+  <si>
+    <t>1,ROLE_ADMIN</t>
+  </si>
+  <si>
+    <t>3,ROLE_CUSTOMER</t>
+  </si>
+  <si>
+    <t>2,ROLE_EMPLOYEE</t>
+  </si>
+  <si>
+    <t>1,Đà Nẵng,https://firebasestorage.googleapis.com/v0/b/mouse-store.appspot.com/o/1676245765_235_Hinh-anh-Avatar-Trang-Dep-Cho-FB-Zalo-BI-AN.jpg?alt=media&amp;token=31b54597-de6a-41de-8d96-a0df4ee32daf,2001-09-06,danh@gmail.com,true,Hoàng Đức Danh,$2a$10$1Fi8OT00rmOnYYUs2ktHS.RR7Crb7q5drY64rM8F4lwsm6sT.vodW,0949890225,danh123</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>1,https://firebasestorage.googleapis.com/v0/b/c0822g1-mobile-shop-d949d.appspot.com/o/16567-clean-z3351628479742-f672d13ee8cbddd92d8accb24cd4c7b2-removebg-preview.png?alt=media&amp;token=1bae1149-f5c7-4c99-b82b-7dcf6af70610,1</t>
+  </si>
+  <si>
+    <t>2,https://firebasestorage.googleapis.com/v0/b/c0822g1-mobile-shop-d949d.appspot.com/o/ao-so-mi-tay-dai-basic-trang-removebg-preview.png?alt=media&amp;token=44136864-eec0-4031-a2bf-5efce1c89829,2</t>
+  </si>
+  <si>
+    <t>3,https://firebasestorage.googleapis.com/v0/b/c0822g1-mobile-shop-d949d.appspot.com/o/%C3%A1o_kho%C3%A1c_nam-removebg-preview.png?alt=media&amp;token=225f9eef-e4a0-4948-b950-99bd12681284,3</t>
+  </si>
+  <si>
+    <t>4,https://firebasestorage.googleapis.com/v0/b/c0822g1-mobile-shop-d949d.appspot.com/o/%C3%A1o_hoodie-removebg-preview.png?alt=media&amp;token=d4ff9dc1-0221-4497-a980-ef3b21917e06,4</t>
+  </si>
+  <si>
+    <t>5,https://firebasestorage.googleapis.com/v0/b/mouse-store.appspot.com/o/ao_khoac_nii-removebg-preview.png?alt=media&amp;token=950e46ad-7d5a-483e-93fe-541b7b230ec7,5</t>
+  </si>
+  <si>
+    <t>6,https://firebasestorage.googleapis.com/v0/b/mouse-store.appspot.com/o/%C3%A1o_thun_polo-removebg-preview.png?alt=media&amp;token=a75f361c-7a45-4fda-8521-7f1f89a401e7,6</t>
+  </si>
+  <si>
+    <t>7,https://firebasestorage.googleapis.com/v0/b/mouse-store.appspot.com/o/14165-clean-z2210678716171-333e29113c10529edf545730fdd4c01f-1-scaled-removebg-preview.png?alt=media&amp;token=bd039cc5-2431-43e0-81c7-cd7e90572781,7</t>
+  </si>
+  <si>
+    <t>8,https://firebasestorage.googleapis.com/v0/b/mouse-store.appspot.com/o/short_thun-removebg-preview.png?alt=media&amp;token=59dae209-6a3e-4b57-bb7e-62c17c5373a4,8</t>
   </si>
 </sst>
 </file>
@@ -136,10 +214,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -147,6 +225,127 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -158,134 +357,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -293,6 +364,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -303,187 +381,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,13 +575,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,21 +629,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -573,9 +640,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,153 +663,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1070,10 +1148,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A6:P10"/>
+  <dimension ref="A9:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1090,74 +1168,273 @@
     <col min="18" max="18" width="14.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:16">
-      <c r="A6" t="s">
+    <row r="9" ht="15" customHeight="1" spans="1:1">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" ht="25" customHeight="1" spans="1:1">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C11" t="s">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D11" t="s">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E11" t="s">
         <v>4</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F11" t="s">
         <v>5</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G11" t="s">
         <v>6</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H11" t="s">
         <v>7</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I11" t="s">
         <v>8</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J11" t="s">
         <v>9</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K11" t="s">
         <v>10</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L11" t="s">
         <v>11</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M11" t="s">
         <v>12</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N11" t="s">
         <v>13</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O11" t="s">
         <v>14</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="1:1">
-      <c r="A9" s="1" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" ht="25" customHeight="1" spans="1:1">
-      <c r="A10" s="1" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B8:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="E10:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="10" spans="5:6">
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26">
+        <v>4.4</v>
       </c>
     </row>
   </sheetData>
@@ -1187,32 +1464,32 @@
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1224,40 +1501,43 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:E11"/>
+  <dimension ref="D7:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <sheetData>
-    <row r="7" spans="4:5">
+    <row r="7" spans="4:6">
       <c r="D7" t="s">
         <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1287,7 +1567,7 @@
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1317,7 +1597,7 @@
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1329,10 +1609,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:E11"/>
+  <dimension ref="D7:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D8" sqref="D8:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1347,22 +1627,152 @@
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4">
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="E5:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="6" max="6" width="11.8888888888889" customWidth="1"/>
+    <col min="8" max="8" width="10.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="5:9">
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="5:5">
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5">
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="5:5">
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="5:5">
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="E5:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="5" spans="5:6">
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="5:5">
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5">
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="5:5">
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="9" spans="3:3">
+      <c r="C9" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
